--- a/medicine/Mort/Décès_en_2023/Décès_en_2023.xlsx
+++ b/medicine/Mort/Décès_en_2023/Décès_en_2023.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_2023</t>
+          <t>Décès_en_2023</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_2023</t>
+          <t>Décès_en_2023</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,8 +540,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-1er janvier : Lise Nørgaard, journaliste, écrivaine et scénariste danoise.
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1er janvier : Lise Nørgaard, journaliste, écrivaine et scénariste danoise.
 2 janvier :
 Abderrahim Tounsi, humoriste marocain.
 Ken Block, pilote de rallye américain.
@@ -568,9 +585,43 @@
 28 janvier :
 Adama Niane, acteur français.
 Viola Léger, actrice et sénatrice canadienne.
-29 janvier : Annie Wersching, actrice américaine.
-Février
-1er février : Philippe Tesson, journaliste français, chroniqueur de radio et de télévision.
+29 janvier : Annie Wersching, actrice américaine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_2023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2023</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1er février : Philippe Tesson, journaliste français, chroniqueur de radio et de télévision.
 2 février :
 Jean-Pierre Jabouille, pilote automobile français.
 Louis Velle, comédien français.
@@ -595,9 +646,43 @@
 Richard Belzer, scénariste et présentateur de télévision américain.
 Jansen Panettiere, acteur américain.
 25 février : François Hadji-Lazaro, musicien et figure du rock français.
-28 février : Just Fontaine, footballeur international français.
-Mars
-2 mars : Wayne Shorter, saxophoniste et compositeur américain de jazz.
+28 février : Just Fontaine, footballeur international français.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_2023</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2023</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2 mars : Wayne Shorter, saxophoniste et compositeur américain de jazz.
 3 mars : Kenzaburō Ōe, écrivain japonais.
 5 mars : Francisco J. Ayala, biologiste de l'évolution et philosophe espagnol et américain.
 6 mars : Gérard Pélisson, homme d'affaires français, cofondateur du groupe Accor.
@@ -623,9 +708,43 @@
 23 mars : Marion Game, actrice française.
 26 mars : Claudia Schüler, joueuse de hockey sur gazon chilienne.
 27 mars : James Bowman, chanteur britannique (contreténor).
-28 mars : Ryūichi Sakamoto, musicien, compositeur, producteur et acteur japonais.
-Avril
-1er avril :
+28 mars : Ryūichi Sakamoto, musicien, compositeur, producteur et acteur japonais.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_2023</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2023</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1er avril :
 Chicuelo, matador espagnol.
 Christiane Rorato, comédienne française.
 Albert Ndele, politique congolais.
@@ -677,9 +796,43 @@
 26 avril : Tony Dreyfus, avocat et homme politique français.
 27 avril :
 Jerry Springer, animateur de télévision américain.
-Jean-Paul Costa, haut fonctionnaire français.
-Mai
-1er mai : Gordon Lightfoot, auteur-compositeur-interprète canadien.
+Jean-Paul Costa, haut fonctionnaire français.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_2023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2023</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1er mai : Gordon Lightfoot, auteur-compositeur-interprète canadien.
 3 mai :
 Bernard Lapasset, dirigeant sportif français du rugby.
 5 mai :
@@ -705,9 +858,43 @@
 22 mai : Ray Stevenson, acteur britannique.
 24 mai : Tina Turner, chanteuse américaine (naturalisée suisse).
 25 mai : Jean-Louis Murat, auteur-compositeur, chanteur et acteur français.
-29 mai : Michel Côté, acteur québécois.
-Juin
-1er juin :
+29 mai : Michel Côté, acteur québécois.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_2023</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2023</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1er juin :
 Guillaume Bats, humoriste français.
 Philippe Pozzo di Borgo, homme d’affaires français. Sa vie a inspiré le film Intouchables.
 2 juin : Kaija Saariaho, compositrice finlandaise.
@@ -750,9 +937,43 @@
 30 juin :
 André-Maurice Pihouée, homme politique français.
 Micere Githae Mugo, dramaturge et autrice kényane.
-Marc-André Lussier, journaliste québécois.
-Juillet
-1er juillet :
+Marc-André Lussier, journaliste québécois.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_2023</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2023</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1er juillet :
 Serge Vieira, chef cuisinier français.
 Dilano van 't Hoff, pilote automobile néerlandais.
 Victoria Amelina, écrivaine ukrainienne.
@@ -789,9 +1010,43 @@
 30 juillet : Paul Reubens, acteur, humoriste et scénariste américain.
 31 juillet :
 Sophie Fillières, réalisatrice et scénariste française.
-Angus Cloud, acteur américain.
-Août
-1er août :
+Angus Cloud, acteur américain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_2023</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2023</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1er août :
 Henri Konan Bédié, homme d'État ivoirien.
 Geneviève de Fontenay, organisatrice française de concours de beauté et présidente du Comité Miss France.
 2 août : Vincent Speranza, vétéran parachutiste américain de la Seconde Guerre mondiale.
@@ -831,9 +1086,43 @@
 Evgueni Prigojine, oligarque russe.
 24 août : Bray Wyatt, catcheur américain.
 26 août : Bob Barker, animateur de jeux télévisés américain.
-30 août : Mohamed Al-Fayed, homme d'affaires égyptien.
-Septembre
-1er septembre :
+30 août : Mohamed Al-Fayed, homme d'affaires égyptien.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_2023</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2023</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1er septembre :
 Ludovic Vaty, joueur français de basket-ball.
 Olivier Picard, historien, archéologue et universitaire français.
 Jimmy Buffett, auteur-compositeur-interprète et homme d’affaires américain.
@@ -879,9 +1168,43 @@
 27 septembre : Catherine Lachens, actrice française.
 28 septembre : Michael Gambon, acteur irlandais.
 29 septembre : Dianne Feinstein, femme politique américaine et sénatrice des États-Unis pour la Californie.
-30 septembre : Khaled Khalifa, écrivain syrien.
-Octobre
-1er octobre : Robert Misrahi, philosophe français.
+30 septembre : Khaled Khalifa, écrivain syrien.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_2023</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2023</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1er octobre : Robert Misrahi, philosophe français.
 3 octobre : Jean-Pierre Elkabbach, journaliste français.
 6 octobre : Maurice Bourgue, hautboïste français.
 8 octobre : László Sólyom, homme d'État hongrois, président de la République (2005-2010).
@@ -899,9 +1222,43 @@
 28 octobre : Matthew Perry, acteur américano-canadien.
 31 octobre :
 Ken Mattingly, astronaute américain.
-Tyler Christopher, acteur américain.
-Novembre
-1er novembre : Bob Knight, entraîneur de basket-ball américain.
+Tyler Christopher, acteur américain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_2023</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2023</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1er novembre : Bob Knight, entraîneur de basket-ball américain.
 2 novembre : Henri Lopes, écrivain, homme politique et diplomate congolais.
 5 novembre : Evan Ellingson, acteur américain.
 8 novembre : Bernard Lemaire, homme d'affaires et ingénieur québécois.
@@ -912,7 +1269,7 @@
 Michel Ciment, critique de cinéma, journaliste et producteur de radio français.
 Maryanne Trump Barry, juge et procureure américaine.
 14 novembre : Alessandra Bianchi, journaliste sportive italienne.
-15 novembre : Karl Tremblay, chanteur et compositeur québécois du groupe Les cowboys fringants[1].
+15 novembre : Karl Tremblay, chanteur et compositeur québécois du groupe Les cowboys fringants.
 16 novembre : A. S. Byatt, écrivaine britannique.
 17 novembre :
 Bob de Groot, scénariste belge de bandes dessinées.
@@ -930,9 +1287,43 @@
 Henry Kissinger, diplomate américain.
 30 novembre :
 Sante Gaiardoni, coureur cycliste italien.
-Shane MacGowan, chanteur irlandais, membre du groupe punk The Pogues.
-Décembre
-1er décembre :
+Shane MacGowan, chanteur irlandais, membre du groupe punk The Pogues.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_2023</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2023</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1er décembre :
 Shlomo Avineri, politologue et historien israélien.
 Burny Bos, producteur et écrivain néerlandais.
 Sandra Day O'Connor, avocate, femme politique et  juge américaine.
